--- a/TNR_PREJDD/PREJDD.FA.CSV.xlsx
+++ b/TNR_PREJDD/PREJDD.FA.CSV.xlsx
@@ -212,7 +212,7 @@
     <t>CSV.TR.BTR.001.CRE.01</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>$NULL</t>
@@ -508,7 +508,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>

--- a/TNR_PREJDD/PREJDD.FA.CSV.xlsx
+++ b/TNR_PREJDD/PREJDD.FA.CSV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -2091,8 +2091,8 @@
       <c r="AO2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="10" t="s">
-        <v>64</v>
+      <c r="AP2" s="11">
+        <v>1.0</v>
       </c>
       <c r="AQ2" s="11" t="s">
         <v>65</v>
@@ -2247,8 +2247,8 @@
       <c r="AO3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="10" t="s">
-        <v>64</v>
+      <c r="AP3" s="11">
+        <v>2.0</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>65</v>
@@ -2403,8 +2403,8 @@
       <c r="AO4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP4" s="10" t="s">
-        <v>64</v>
+      <c r="AP4" s="11">
+        <v>3.0</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>65</v>
@@ -2559,8 +2559,8 @@
       <c r="AO5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="10" t="s">
-        <v>64</v>
+      <c r="AP5" s="11">
+        <v>4.0</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>65</v>
@@ -2715,8 +2715,8 @@
       <c r="AO6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" s="10" t="s">
-        <v>64</v>
+      <c r="AP6" s="11">
+        <v>5.0</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>65</v>
@@ -2871,8 +2871,8 @@
       <c r="AO7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP7" s="10" t="s">
-        <v>64</v>
+      <c r="AP7" s="11">
+        <v>6.0</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>65</v>
@@ -3027,8 +3027,8 @@
       <c r="AO8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="10" t="s">
-        <v>64</v>
+      <c r="AP8" s="11">
+        <v>7.0</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>65</v>
@@ -3183,8 +3183,8 @@
       <c r="AO9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AP9" s="10" t="s">
-        <v>64</v>
+      <c r="AP9" s="11">
+        <v>8.0</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>65</v>

--- a/TNR_PREJDD/PREJDD.FA.CSV.xlsx
+++ b/TNR_PREJDD/PREJDD.FA.CSV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -212,9 +212,6 @@
     <t>CSV.TR.BTR.001.CRE.01</t>
   </si>
   <si>
-    <t>$TBD</t>
-  </si>
-  <si>
     <t>$NULL</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>CONTACT01</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>O</t>
@@ -383,7 +383,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -414,10 +414,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -488,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -508,19 +504,22 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1976,152 +1975,152 @@
       <c r="B2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>65</v>
+      <c r="C2" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="11">
+        <v>43831.0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>44197.0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>44197.0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1000.0</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="12">
-        <v>43831.0</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="O2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="11">
         <v>44197.0</v>
       </c>
-      <c r="L2" s="12">
-        <v>44197.0</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="X2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="10">
         <v>1000.0</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="12">
-        <v>44197.0</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>1000.0</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AX2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2132,152 +2131,152 @@
       <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>65</v>
+      <c r="C3" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>44197.0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>44562.0</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>44562.0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>2000.0</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="12">
+      <c r="V3" s="13"/>
+      <c r="W3" s="11">
         <v>44562.0</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="11">
+      <c r="X3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="10">
         <v>2000.0</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>80</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="11">
+      <c r="AB3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="10">
         <v>2.0</v>
       </c>
-      <c r="AG3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="11">
+      <c r="AG3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" s="11">
+      <c r="AJ3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="10">
         <v>2.0</v>
       </c>
-      <c r="AL3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" s="11">
+      <c r="AL3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP3" s="10">
         <v>2.0</v>
       </c>
-      <c r="AQ3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AQ3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AW3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2288,152 +2287,152 @@
       <c r="B4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>65</v>
+      <c r="C4" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>44562.0</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>44927.0</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>44927.0</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>3000.0</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="11">
-        <v>30.0</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="12">
+      <c r="V4" s="13"/>
+      <c r="W4" s="11">
         <v>44927.0</v>
       </c>
-      <c r="X4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="11">
+      <c r="X4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="10">
         <v>3000.0</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="11">
+      <c r="AB4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="10">
         <v>3.0</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH4" s="11">
+      <c r="AG4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" s="11">
+      <c r="AJ4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="10">
         <v>3.0</v>
       </c>
-      <c r="AL4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP4" s="11">
+      <c r="AL4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="10">
         <v>3.0</v>
       </c>
-      <c r="AQ4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AQ4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AW4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ4" s="15" t="s">
+      <c r="AZ4" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2444,152 +2443,152 @@
       <c r="B5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>65</v>
+      <c r="C5" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>44927.0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>45292.0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>45292.0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>4000.0</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="11">
-        <v>40.0</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="12">
+      <c r="V5" s="13"/>
+      <c r="W5" s="11">
         <v>45292.0</v>
       </c>
-      <c r="X5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="11">
+      <c r="X5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="10">
         <v>4000.0</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="10" t="s">
         <v>92</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="11">
+      <c r="AB5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="10">
         <v>4.0</v>
       </c>
-      <c r="AG5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH5" s="11">
+      <c r="AG5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" s="11">
+      <c r="AJ5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="10">
         <v>4.0</v>
       </c>
-      <c r="AL5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP5" s="11">
+      <c r="AL5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="10">
         <v>4.0</v>
       </c>
-      <c r="AQ5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AQ5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY5" s="15" t="s">
+      <c r="AW5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ5" s="15" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2600,152 +2599,152 @@
       <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>65</v>
+      <c r="C6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>43831.0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>44197.0</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>44197.0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>5000.0</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="12">
+      <c r="V6" s="13"/>
+      <c r="W6" s="11">
         <v>44197.0</v>
       </c>
-      <c r="X6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="11">
+      <c r="X6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="10">
         <v>5000.0</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="11">
+      <c r="AB6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF6" s="10">
         <v>5.0</v>
       </c>
-      <c r="AG6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH6" s="11">
+      <c r="AG6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH6" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6" s="11">
+      <c r="AJ6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="10">
         <v>5.0</v>
       </c>
-      <c r="AL6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP6" s="11">
+      <c r="AL6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP6" s="10">
         <v>5.0</v>
       </c>
-      <c r="AQ6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AQ6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY6" s="15" t="s">
+      <c r="AW6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ6" s="15" t="s">
+      <c r="AZ6" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2756,152 +2755,152 @@
       <c r="B7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>65</v>
+      <c r="C7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>44197.0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>44562.0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>44562.0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>6000.0</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="11">
-        <v>60.0</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="12">
+      <c r="V7" s="13"/>
+      <c r="W7" s="11">
         <v>44562.0</v>
       </c>
-      <c r="X7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="11">
+      <c r="X7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="10">
         <v>6000.0</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF7" s="11">
+      <c r="AB7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="10">
         <v>6.0</v>
       </c>
-      <c r="AG7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH7" s="11">
+      <c r="AG7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" s="11">
+      <c r="AJ7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="10">
         <v>6.0</v>
       </c>
-      <c r="AL7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP7" s="11">
+      <c r="AL7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP7" s="10">
         <v>6.0</v>
       </c>
-      <c r="AQ7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV7" s="11" t="s">
+      <c r="AQ7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY7" s="15" t="s">
+      <c r="AW7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ7" s="15" t="s">
+      <c r="AZ7" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2912,152 +2911,152 @@
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>65</v>
+      <c r="C8" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>44562.0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>44927.0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>44927.0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>7000.0</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="11">
-        <v>70.0</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="12">
+      <c r="V8" s="13"/>
+      <c r="W8" s="11">
         <v>44927.0</v>
       </c>
-      <c r="X8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="11">
+      <c r="X8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="10">
         <v>7000.0</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" s="10" t="s">
         <v>109</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF8" s="11">
+      <c r="AB8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="10">
         <v>7.0</v>
       </c>
-      <c r="AG8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="11">
+      <c r="AG8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK8" s="11">
+      <c r="AJ8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="10">
         <v>7.0</v>
       </c>
-      <c r="AL8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP8" s="11">
+      <c r="AL8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP8" s="10">
         <v>7.0</v>
       </c>
-      <c r="AQ8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AQ8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY8" s="15" t="s">
+      <c r="AW8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ8" s="15" t="s">
+      <c r="AZ8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3068,152 +3067,152 @@
       <c r="B9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>65</v>
+      <c r="C9" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>44562.0</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>44927.0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>44927.0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>8000.0</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="10">
+        <v>80.0</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="11">
-        <v>80.0</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="12">
+      <c r="V9" s="13"/>
+      <c r="W9" s="11">
         <v>44927.0</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" s="11">
+      <c r="X9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="10">
         <v>8000.0</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="10" t="s">
         <v>115</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF9" s="11">
+      <c r="AB9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="10">
         <v>8.0</v>
       </c>
-      <c r="AG9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH9" s="11">
+      <c r="AG9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="10">
         <v>2.0</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="10">
         <v>2.0</v>
       </c>
-      <c r="AJ9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" s="11">
+      <c r="AJ9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK9" s="10">
         <v>8.0</v>
       </c>
-      <c r="AL9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP9" s="11">
+      <c r="AL9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP9" s="10">
         <v>8.0</v>
       </c>
-      <c r="AQ9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AQ9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AW9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY9" s="15" t="s">
+      <c r="AW9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AZ9" s="15" t="s">
+      <c r="AZ9" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4688,25 +4687,25 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
